--- a/Divisions/E2.xlsx
+++ b/Divisions/E2.xlsx
@@ -12,12 +12,13 @@
     <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
     <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
     <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
+    <sheet name="L6" r:id="rId9" sheetId="7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8394" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8518" uniqueCount="338">
   <si>
     <t>Team</t>
   </si>
@@ -731,6 +732,306 @@
   </si>
   <si>
     <t>3.0444</t>
+  </si>
+  <si>
+    <t>Form</t>
+  </si>
+  <si>
+    <t>Goals scored</t>
+  </si>
+  <si>
+    <t>Goals conceded</t>
+  </si>
+  <si>
+    <t>Total Goals</t>
+  </si>
+  <si>
+    <t>Accrington,D L W D D D</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon,W W W D D L</t>
+  </si>
+  <si>
+    <t>Blackpool,D W L L W W</t>
+  </si>
+  <si>
+    <t>Bristol Rvs,W D L L L L</t>
+  </si>
+  <si>
+    <t>Burton,W D L D W D</t>
+  </si>
+  <si>
+    <t>Charlton,W D W L D D</t>
+  </si>
+  <si>
+    <t>Crewe,D L W D D W</t>
+  </si>
+  <si>
+    <t>Doncaster,L W L L D W</t>
+  </si>
+  <si>
+    <t>Fleetwood Town,W L L W L D</t>
+  </si>
+  <si>
+    <t>Gillingham,L D L W D D</t>
+  </si>
+  <si>
+    <t>Hull,W W W D W W</t>
+  </si>
+  <si>
+    <t>Ipswich,D L D L D W</t>
+  </si>
+  <si>
+    <t>Lincoln,W W W L W D</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons,D L W W W D</t>
+  </si>
+  <si>
+    <t>Northampton,L D L W D L</t>
+  </si>
+  <si>
+    <t>Oxford,W W W L W W</t>
+  </si>
+  <si>
+    <t>Peterboro,W W L W D D</t>
+  </si>
+  <si>
+    <t>Plymouth,L L D L L L</t>
+  </si>
+  <si>
+    <t>Portsmouth,D L L W D W</t>
+  </si>
+  <si>
+    <t>Rochdale,W W W D D L</t>
+  </si>
+  <si>
+    <t>Shrewsbury,L L L W L L</t>
+  </si>
+  <si>
+    <t>Sunderland,L L D D L W</t>
+  </si>
+  <si>
+    <t>Swindon,L L L W L L</t>
+  </si>
+  <si>
+    <t>Wigan,W W W W D L</t>
+  </si>
+  <si>
+    <t>Accrington,0 1 2 3 3 1</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon,3 4 2 0 3 1</t>
+  </si>
+  <si>
+    <t>Blackpool,0 1 0 0 1 3</t>
+  </si>
+  <si>
+    <t>Bristol Rvs,2 1 0 0 0 0</t>
+  </si>
+  <si>
+    <t>Burton,3 1 0 1 5 1</t>
+  </si>
+  <si>
+    <t>Charlton,2 0 6 0 2 1</t>
+  </si>
+  <si>
+    <t>Crewe,0 0 2 1 2 1</t>
+  </si>
+  <si>
+    <t>Doncaster,0 2 1 0 2 2</t>
+  </si>
+  <si>
+    <t>Fleetwood Town,1 1 0 1 2 1</t>
+  </si>
+  <si>
+    <t>Gillingham,1 0 2 1 2 1</t>
+  </si>
+  <si>
+    <t>Hull,3 3 2 2 2 3</t>
+  </si>
+  <si>
+    <t>Ipswich,0 0 0 0 0 2</t>
+  </si>
+  <si>
+    <t>Lincoln,4 1 1 1 1 3</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons,0 0 1 2 5 1</t>
+  </si>
+  <si>
+    <t>Northampton,0 1 1 3 2 0</t>
+  </si>
+  <si>
+    <t>Oxford,6 4 3 1 3 3</t>
+  </si>
+  <si>
+    <t>Peterboro,3 3 0 1 2 3</t>
+  </si>
+  <si>
+    <t>Plymouth,0 0 1 0 1 1</t>
+  </si>
+  <si>
+    <t>Portsmouth,0 0 1 1 3 3</t>
+  </si>
+  <si>
+    <t>Rochdale,2 3 1 1 3 1</t>
+  </si>
+  <si>
+    <t>Shrewsbury,1 0 1 1 0 2</t>
+  </si>
+  <si>
+    <t>Sunderland,1 0 2 3 0 3</t>
+  </si>
+  <si>
+    <t>Swindon,0 1 1 3 0 1</t>
+  </si>
+  <si>
+    <t>Wigan,4 2 2 2 1 1</t>
+  </si>
+  <si>
+    <t>Accrington,0 3 1 3 3 1</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon,0 1 1 0 3 3</t>
+  </si>
+  <si>
+    <t>Blackpool,0 0 1 1 0 0</t>
+  </si>
+  <si>
+    <t>Bristol Rvs,1 1 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Burton,0 1 1 1 2 1</t>
+  </si>
+  <si>
+    <t>Charlton,1 0 0 1 2 1</t>
+  </si>
+  <si>
+    <t>Crewe,0 2 0 1 2 0</t>
+  </si>
+  <si>
+    <t>Doncaster,3 0 2 1 2 1</t>
+  </si>
+  <si>
+    <t>Fleetwood Town,0 2 2 0 5 1</t>
+  </si>
+  <si>
+    <t>Gillingham,4 0 3 0 2 1</t>
+  </si>
+  <si>
+    <t>Hull,0 0 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Ipswich,0 3 0 3 0 1</t>
+  </si>
+  <si>
+    <t>Lincoln,0 0 0 2 0 3</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons,0 4 0 0 0 1</t>
+  </si>
+  <si>
+    <t>Northampton,3 1 3 0 2 3</t>
+  </si>
+  <si>
+    <t>Oxford,0 1 2 2 1 2</t>
+  </si>
+  <si>
+    <t>Peterboro,0 1 1 0 2 3</t>
+  </si>
+  <si>
+    <t>Plymouth,3 3 1 6 3 3</t>
+  </si>
+  <si>
+    <t>Portsmouth,0 1 3 0 3 1</t>
+  </si>
+  <si>
+    <t>Rochdale,1 1 0 1 3 2</t>
+  </si>
+  <si>
+    <t>Shrewsbury,4 2 2 0 1 3</t>
+  </si>
+  <si>
+    <t>Sunderland,2 1 2 3 1 1</t>
+  </si>
+  <si>
+    <t>Swindon,3 2 4 1 5 2</t>
+  </si>
+  <si>
+    <t>Wigan,1 1 0 1 1 3</t>
+  </si>
+  <si>
+    <t>Accrington,0 4 3 6 6 2</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon,3 5 3 0 6 4</t>
+  </si>
+  <si>
+    <t>Blackpool,0 1 1 1 1 3</t>
+  </si>
+  <si>
+    <t>Bristol Rvs,3 2 1 2 1 1</t>
+  </si>
+  <si>
+    <t>Burton,3 2 1 2 7 2</t>
+  </si>
+  <si>
+    <t>Charlton,3 0 6 1 4 2</t>
+  </si>
+  <si>
+    <t>Crewe,0 2 2 2 4 1</t>
+  </si>
+  <si>
+    <t>Doncaster,3 2 3 1 4 3</t>
+  </si>
+  <si>
+    <t>Fleetwood Town,1 3 2 1 7 2</t>
+  </si>
+  <si>
+    <t>Gillingham,5 0 5 1 4 2</t>
+  </si>
+  <si>
+    <t>Hull,3 3 3 4 3 4</t>
+  </si>
+  <si>
+    <t>Ipswich,0 3 0 3 0 3</t>
+  </si>
+  <si>
+    <t>Lincoln,4 1 1 3 1 6</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons,0 4 1 2 5 2</t>
+  </si>
+  <si>
+    <t>Northampton,3 2 4 3 4 3</t>
+  </si>
+  <si>
+    <t>Oxford,6 5 5 3 4 5</t>
+  </si>
+  <si>
+    <t>Peterboro,3 4 1 1 4 6</t>
+  </si>
+  <si>
+    <t>Plymouth,3 3 2 6 4 4</t>
+  </si>
+  <si>
+    <t>Portsmouth,0 1 4 1 6 4</t>
+  </si>
+  <si>
+    <t>Rochdale,3 4 1 2 6 3</t>
+  </si>
+  <si>
+    <t>Shrewsbury,5 2 3 1 1 5</t>
+  </si>
+  <si>
+    <t>Sunderland,3 1 4 6 1 4</t>
+  </si>
+  <si>
+    <t>Swindon,3 3 5 4 5 3</t>
+  </si>
+  <si>
+    <t>Wigan,5 3 2 3 2 4</t>
   </si>
 </sst>
 </file>
@@ -26337,4 +26638,440 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
+        <v>267</v>
+      </c>
+      <c r="D3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E5" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D6" t="s">
+        <v>294</v>
+      </c>
+      <c r="E6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+      <c r="E8" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D9" t="s">
+        <v>297</v>
+      </c>
+      <c r="E9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" t="s">
+        <v>274</v>
+      </c>
+      <c r="D10" t="s">
+        <v>298</v>
+      </c>
+      <c r="E10" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>299</v>
+      </c>
+      <c r="E11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" t="s">
+        <v>300</v>
+      </c>
+      <c r="E12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C13" t="s">
+        <v>277</v>
+      </c>
+      <c r="D13" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" t="s">
+        <v>302</v>
+      </c>
+      <c r="E14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C15" t="s">
+        <v>279</v>
+      </c>
+      <c r="D15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D16" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" t="s">
+        <v>281</v>
+      </c>
+      <c r="D17" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D18" t="s">
+        <v>306</v>
+      </c>
+      <c r="E18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D19" t="s">
+        <v>307</v>
+      </c>
+      <c r="E19" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" t="s">
+        <v>284</v>
+      </c>
+      <c r="D20" t="s">
+        <v>308</v>
+      </c>
+      <c r="E20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>261</v>
+      </c>
+      <c r="C21" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D22" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>263</v>
+      </c>
+      <c r="C23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D23" t="s">
+        <v>311</v>
+      </c>
+      <c r="E23" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" t="s">
+        <v>288</v>
+      </c>
+      <c r="D24" t="s">
+        <v>312</v>
+      </c>
+      <c r="E24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C25" t="s">
+        <v>289</v>
+      </c>
+      <c r="D25" t="s">
+        <v>313</v>
+      </c>
+      <c r="E25" t="s">
+        <v>337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Divisions/E2.xlsx
+++ b/Divisions/E2.xlsx
@@ -1,25 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\Rsoccer\Divisions\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7320" tabRatio="703" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Table" r:id="rId3" sheetId="1"/>
-    <sheet name="Form" r:id="rId4" sheetId="2"/>
-    <sheet name="Goals scored" r:id="rId5" sheetId="3"/>
-    <sheet name="Goals conceded" r:id="rId6" sheetId="4"/>
-    <sheet name="Total Goals form" r:id="rId7" sheetId="5"/>
-    <sheet name="Goal totals v2" r:id="rId8" sheetId="6"/>
-    <sheet name="Shots Analysis" r:id="rId9" sheetId="7"/>
-    <sheet name="L6" r:id="rId10" sheetId="8"/>
+    <sheet name="Table" sheetId="1" r:id="rId1"/>
+    <sheet name="Form" sheetId="2" r:id="rId2"/>
+    <sheet name="Goals scored" sheetId="3" r:id="rId3"/>
+    <sheet name="Goals conceded" sheetId="4" r:id="rId4"/>
+    <sheet name="Total Goals form" sheetId="5" r:id="rId5"/>
+    <sheet name="Goal totals v2" sheetId="6" r:id="rId6"/>
+    <sheet name="Shots Analysis" sheetId="7" r:id="rId7"/>
+    <sheet name="L6" sheetId="8" r:id="rId8"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8934" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8959" uniqueCount="507">
   <si>
     <t>Team</t>
   </si>
@@ -1179,6 +1186,9 @@
     <t>Total Goals</t>
   </si>
   <si>
+    <t>Team against</t>
+  </si>
+  <si>
     <t>Accrington,L W D D D W</t>
   </si>
   <si>
@@ -1251,230 +1261,301 @@
     <t>Wigan,W W W D L L</t>
   </si>
   <si>
-    <t>Accrington,1 2 3 3 1 1</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon,4 2 0 3 1 0</t>
-  </si>
-  <si>
-    <t>Blackpool,0 0 1 3 2 1</t>
-  </si>
-  <si>
-    <t>Bristol Rvs,1 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>Burton,1 0 1 5 1 0</t>
-  </si>
-  <si>
-    <t>Charlton,6 0 2 1 3 1</t>
-  </si>
-  <si>
-    <t>Crewe,0 2 1 2 1 3</t>
-  </si>
-  <si>
-    <t>Doncaster,1 0 2 2 0 1</t>
-  </si>
-  <si>
-    <t>Fleetwood Town,1 0 1 2 1 1</t>
-  </si>
-  <si>
-    <t>Gillingham,0 2 1 2 1 1</t>
-  </si>
-  <si>
-    <t>Hull,3 2 2 2 3 0</t>
-  </si>
-  <si>
-    <t>Ipswich,0 0 0 2 0 3</t>
-  </si>
-  <si>
-    <t>Lincoln,1 1 1 3 1 0</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons,0 1 2 5 1 0</t>
-  </si>
-  <si>
-    <t>Northampton,1 1 3 2 0 1</t>
-  </si>
-  <si>
-    <t>Oxford,4 3 1 3 3 4</t>
-  </si>
-  <si>
-    <t>Peterboro,3 0 1 2 3 4</t>
-  </si>
-  <si>
-    <t>Plymouth,0 1 0 1 1 0</t>
-  </si>
-  <si>
-    <t>Portsmouth,0 1 1 3 3 0</t>
-  </si>
-  <si>
-    <t>Rochdale,3 1 1 3 1 3</t>
-  </si>
-  <si>
-    <t>Shrewsbury,1 1 0 2 0 2</t>
-  </si>
-  <si>
-    <t>Sunderland,0 2 3 0 3 1</t>
-  </si>
-  <si>
-    <t>Swindon,1 1 3 0 1 4</t>
-  </si>
-  <si>
-    <t>Wigan,2 2 2 1 1 3</t>
-  </si>
-  <si>
-    <t>Accrington,3 1 3 3 1 0</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon,1 1 0 3 3 0</t>
-  </si>
-  <si>
-    <t>Blackpool,1 1 0 0 0 0</t>
-  </si>
-  <si>
-    <t>Bristol Rvs,1 1 2 1 1 1</t>
-  </si>
-  <si>
-    <t>Burton,1 1 1 2 1 4</t>
-  </si>
-  <si>
-    <t>Charlton,0 1 2 1 1 0</t>
-  </si>
-  <si>
-    <t>Crewe,2 0 1 2 0 2</t>
-  </si>
-  <si>
-    <t>Doncaster,2 1 2 1 2 4</t>
-  </si>
-  <si>
-    <t>Fleetwood Town,2 2 0 5 1 3</t>
-  </si>
-  <si>
-    <t>Gillingham,0 3 0 2 1 0</t>
-  </si>
-  <si>
-    <t>Hull,0 1 2 1 1 1</t>
-  </si>
-  <si>
-    <t>Ipswich,0 3 0 1 0 1</t>
-  </si>
-  <si>
-    <t>Lincoln,0 2 0 3 3 0</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons,4 0 0 0 1 3</t>
-  </si>
-  <si>
-    <t>Northampton,1 3 0 2 3 1</t>
-  </si>
-  <si>
-    <t>Oxford,1 2 2 1 2 0</t>
-  </si>
-  <si>
-    <t>Peterboro,1 1 0 2 3 1</t>
-  </si>
-  <si>
-    <t>Plymouth,3 1 6 3 3 1</t>
-  </si>
-  <si>
-    <t>Portsmouth,1 3 0 3 1 1</t>
-  </si>
-  <si>
-    <t>Rochdale,1 0 1 3 2 0</t>
-  </si>
-  <si>
-    <t>Shrewsbury,2 0 1 3 0 3</t>
-  </si>
-  <si>
-    <t>Sunderland,1 2 3 1 1 1</t>
-  </si>
-  <si>
-    <t>Swindon,2 4 1 5 2 3</t>
-  </si>
-  <si>
-    <t>Wigan,1 0 1 1 3 4</t>
-  </si>
-  <si>
-    <t>Accrington,4 3 6 6 2 1</t>
-  </si>
-  <si>
-    <t>AFC Wimbledon,5 3 0 6 4 0</t>
-  </si>
-  <si>
-    <t>Blackpool,1 1 1 3 2 1</t>
-  </si>
-  <si>
-    <t>Bristol Rvs,2 1 2 1 1 1</t>
-  </si>
-  <si>
-    <t>Burton,2 1 2 7 2 4</t>
-  </si>
-  <si>
-    <t>Charlton,6 1 4 2 4 1</t>
-  </si>
-  <si>
-    <t>Crewe,2 2 2 4 1 5</t>
-  </si>
-  <si>
-    <t>Doncaster,3 1 4 3 2 5</t>
-  </si>
-  <si>
-    <t>Fleetwood Town,3 2 1 7 2 4</t>
-  </si>
-  <si>
-    <t>Gillingham,0 5 1 4 2 1</t>
-  </si>
-  <si>
-    <t>Hull,3 3 4 3 4 1</t>
-  </si>
-  <si>
-    <t>Ipswich,0 3 0 3 0 4</t>
-  </si>
-  <si>
-    <t>Lincoln,1 3 1 6 4 0</t>
-  </si>
-  <si>
-    <t>Milton Keynes Dons,4 1 2 5 2 3</t>
-  </si>
-  <si>
-    <t>Northampton,2 4 3 4 3 2</t>
-  </si>
-  <si>
-    <t>Oxford,5 5 3 4 5 4</t>
-  </si>
-  <si>
-    <t>Peterboro,4 1 1 4 6 5</t>
-  </si>
-  <si>
-    <t>Plymouth,3 2 6 4 4 1</t>
-  </si>
-  <si>
-    <t>Portsmouth,1 4 1 6 4 1</t>
-  </si>
-  <si>
-    <t>Rochdale,4 1 2 6 3 3</t>
-  </si>
-  <si>
-    <t>Shrewsbury,3 1 1 5 0 5</t>
-  </si>
-  <si>
-    <t>Sunderland,1 4 6 1 4 2</t>
-  </si>
-  <si>
-    <t>Swindon,3 5 4 5 3 7</t>
-  </si>
-  <si>
-    <t>Wigan,3 2 3 2 4 7</t>
+    <t>Accrington,1 2 3 3 1 1,(11)</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon,4 2 0 3 1 0,(10)</t>
+  </si>
+  <si>
+    <t>Blackpool,0 0 1 3 2 1,(7)</t>
+  </si>
+  <si>
+    <t>Bristol Rvs,1 0 0 0 0 0,(1)</t>
+  </si>
+  <si>
+    <t>Burton,1 0 1 5 1 0,(8)</t>
+  </si>
+  <si>
+    <t>Charlton,6 0 2 1 3 1,(13)</t>
+  </si>
+  <si>
+    <t>Crewe,0 2 1 2 1 3,(9)</t>
+  </si>
+  <si>
+    <t>Doncaster,1 0 2 2 0 1,(6)</t>
+  </si>
+  <si>
+    <t>Fleetwood Town,1 0 1 2 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Gillingham,0 2 1 2 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Hull,3 2 2 2 3 0,(12)</t>
+  </si>
+  <si>
+    <t>Ipswich,0 0 0 2 0 3,(5)</t>
+  </si>
+  <si>
+    <t>Lincoln,1 1 1 3 1 0,(7)</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons,0 1 2 5 1 0,(9)</t>
+  </si>
+  <si>
+    <t>Northampton,1 1 3 2 0 1,(8)</t>
+  </si>
+  <si>
+    <t>Oxford,4 3 1 3 3 4,(18)</t>
+  </si>
+  <si>
+    <t>Peterboro,3 0 1 2 3 4,(13)</t>
+  </si>
+  <si>
+    <t>Plymouth,0 1 0 1 1 0,(3)</t>
+  </si>
+  <si>
+    <t>Portsmouth,0 1 1 3 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Rochdale,3 1 1 3 1 3,(12)</t>
+  </si>
+  <si>
+    <t>Shrewsbury,1 1 0 2 0 2,(6)</t>
+  </si>
+  <si>
+    <t>Sunderland,0 2 3 0 3 1,(9)</t>
+  </si>
+  <si>
+    <t>Swindon,1 1 3 0 1 4,(10)</t>
+  </si>
+  <si>
+    <t>Wigan,2 2 2 1 1 3,(11)</t>
+  </si>
+  <si>
+    <t>Accrington,3 1 3 3 1 0,(11)</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon,1 1 0 3 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Blackpool,1 1 0 0 0 0,(2)</t>
+  </si>
+  <si>
+    <t>Bristol Rvs,1 1 2 1 1 1,(7)</t>
+  </si>
+  <si>
+    <t>Burton,1 1 1 2 1 4,(10)</t>
+  </si>
+  <si>
+    <t>Charlton,0 1 2 1 1 0,(5)</t>
+  </si>
+  <si>
+    <t>Crewe,2 0 1 2 0 2,(7)</t>
+  </si>
+  <si>
+    <t>Doncaster,2 1 2 1 2 4,(12)</t>
+  </si>
+  <si>
+    <t>Fleetwood Town,2 2 0 5 1 3,(13)</t>
+  </si>
+  <si>
+    <t>Gillingham,0 3 0 2 1 0,(6)</t>
+  </si>
+  <si>
+    <t>Hull,0 1 2 1 1 1,(6)</t>
+  </si>
+  <si>
+    <t>Ipswich,0 3 0 1 0 1,(5)</t>
+  </si>
+  <si>
+    <t>Lincoln,0 2 0 3 3 0,(8)</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons,4 0 0 0 1 3,(8)</t>
+  </si>
+  <si>
+    <t>Northampton,1 3 0 2 3 1,(10)</t>
+  </si>
+  <si>
+    <t>Oxford,1 2 2 1 2 0,(8)</t>
+  </si>
+  <si>
+    <t>Peterboro,1 1 0 2 3 1,(8)</t>
+  </si>
+  <si>
+    <t>Plymouth,3 1 6 3 3 1,(17)</t>
+  </si>
+  <si>
+    <t>Portsmouth,1 3 0 3 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Rochdale,1 0 1 3 2 0,(7)</t>
+  </si>
+  <si>
+    <t>Shrewsbury,2 0 1 3 0 3,(9)</t>
+  </si>
+  <si>
+    <t>Sunderland,1 2 3 1 1 1,(9)</t>
+  </si>
+  <si>
+    <t>Swindon,2 4 1 5 2 3,(17)</t>
+  </si>
+  <si>
+    <t>Wigan,1 0 1 1 3 4,(10)</t>
+  </si>
+  <si>
+    <t>Accrington,4 3 6 6 2 1,(22)</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon,5 3 0 6 4 0,(18)</t>
+  </si>
+  <si>
+    <t>Blackpool,1 1 1 3 2 1,(9)</t>
+  </si>
+  <si>
+    <t>Bristol Rvs,2 1 2 1 1 1,(8)</t>
+  </si>
+  <si>
+    <t>Burton,2 1 2 7 2 4,(18)</t>
+  </si>
+  <si>
+    <t>Charlton,6 1 4 2 4 1,(18)</t>
+  </si>
+  <si>
+    <t>Crewe,2 2 2 4 1 5,(16)</t>
+  </si>
+  <si>
+    <t>Doncaster,3 1 4 3 2 5,(18)</t>
+  </si>
+  <si>
+    <t>Fleetwood Town,3 2 1 7 2 4,(19)</t>
+  </si>
+  <si>
+    <t>Gillingham,0 5 1 4 2 1,(13)</t>
+  </si>
+  <si>
+    <t>Hull,3 3 4 3 4 1,(18)</t>
+  </si>
+  <si>
+    <t>Ipswich,0 3 0 3 0 4,(10)</t>
+  </si>
+  <si>
+    <t>Lincoln,1 3 1 6 4 0,(15)</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons,4 1 2 5 2 3,(17)</t>
+  </si>
+  <si>
+    <t>Northampton,2 4 3 4 3 2,(18)</t>
+  </si>
+  <si>
+    <t>Oxford,5 5 3 4 5 4,(26)</t>
+  </si>
+  <si>
+    <t>Peterboro,4 1 1 4 6 5,(21)</t>
+  </si>
+  <si>
+    <t>Plymouth,3 2 6 4 4 1,(20)</t>
+  </si>
+  <si>
+    <t>Portsmouth,1 4 1 6 4 1,(17)</t>
+  </si>
+  <si>
+    <t>Rochdale,4 1 2 6 3 3,(19)</t>
+  </si>
+  <si>
+    <t>Shrewsbury,3 1 1 5 0 5,(15)</t>
+  </si>
+  <si>
+    <t>Sunderland,1 4 6 1 4 2,(18)</t>
+  </si>
+  <si>
+    <t>Swindon,3 5 4 5 3 7,(27)</t>
+  </si>
+  <si>
+    <t>Wigan,3 2 3 2 4 7,(21)</t>
+  </si>
+  <si>
+    <t>Accrington,Rochdale Doncaster Sunderland Portsmouth Charlton Portsmouth</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon,Swindon Oxford Ipswich Rochdale Portsmouth Lincoln</t>
+  </si>
+  <si>
+    <t>Blackpool,Rochdale Shrewsbury Sunderland Northampton Doncaster Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Bristol Rvs,Northampton Lincoln Milton Keynes Dons Portsmouth Crewe Blackpool</t>
+  </si>
+  <si>
+    <t>Burton,Plymouth Lincoln Wigan Fleetwood Town Gillingham Oxford</t>
+  </si>
+  <si>
+    <t>Charlton,Plymouth Peterboro Crewe Accrington Lincoln Hull</t>
+  </si>
+  <si>
+    <t>Crewe,Wigan Fleetwood Town Rochdale Charlton Bristol Rvs Shrewsbury</t>
+  </si>
+  <si>
+    <t>Doncaster,Accrington Fleetwood Town Peterboro Rochdale Blackpool Peterboro</t>
+  </si>
+  <si>
+    <t>Fleetwood Town,Hull Crewe Doncaster Burton Milton Keynes Dons Ipswich</t>
+  </si>
+  <si>
+    <t>Gillingham,Shrewsbury Oxford Peterboro Northampton Burton Plymouth</t>
+  </si>
+  <si>
+    <t>Hull,Plymouth Fleetwood Town Sunderland Lincoln Wigan Charlton</t>
+  </si>
+  <si>
+    <t>Ipswich,Charlton Northampton AFC Wimbledon Swindon Shrewsbury Fleetwood Town</t>
+  </si>
+  <si>
+    <t>Lincoln,Burton Hull Shrewsbury Peterboro Charlton AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons,Lincoln Portsmouth Bristol Rvs Swindon Fleetwood Town Rochdale</t>
+  </si>
+  <si>
+    <t>Northampton,Bristol Rvs Peterboro Ipswich Gillingham Blackpool Sunderland</t>
+  </si>
+  <si>
+    <t>Oxford,Shrewsbury Gillingham AFC Wimbledon Plymouth Shrewsbury Burton</t>
+  </si>
+  <si>
+    <t>Peterboro,Northampton Gillingham Charlton Doncaster Lincoln Doncaster</t>
+  </si>
+  <si>
+    <t>Plymouth,Hull Burton Charlton Oxford Sunderland Gillingham</t>
+  </si>
+  <si>
+    <t>Portsmouth,Milton Keynes Dons Swindon Bristol Rvs Accrington AFC Wimbledon Accrington</t>
+  </si>
+  <si>
+    <t>Rochdale,Accrington Blackpool Crewe AFC Wimbledon Doncaster Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Shrewsbury,Wigan Blackpool Lincoln Oxford Ipswich Crewe</t>
+  </si>
+  <si>
+    <t>Sunderland,Blackpool Hull Accrington Blackpool Plymouth Northampton</t>
+  </si>
+  <si>
+    <t>Swindon,Rochdale AFC Wimbledon Portsmouth Milton Keynes Dons Ipswich Wigan</t>
+  </si>
+  <si>
+    <t>Wigan,Sunderland Crewe Shrewsbury Burton Hull Swindon</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1486,7 +1567,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -1504,19 +1585,292 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1577,7 +1931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1609,7 +1963,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1641,7 +1995,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -1673,7 +2027,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1705,7 +2059,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1737,7 +2091,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1769,7 +2123,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1801,7 +2155,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +2187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1865,7 +2219,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1897,7 +2251,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1929,7 +2283,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -1961,7 +2315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
@@ -1993,7 +2347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2025,7 +2379,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -2057,7 +2411,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -2089,7 +2443,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -2121,7 +2475,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
@@ -2153,7 +2507,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2185,7 +2539,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -2217,7 +2571,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
@@ -2249,7 +2603,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -2281,7 +2635,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -2314,20 +2668,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BX25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>111</v>
       </c>
@@ -2554,7 +2907,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2784,7 +3137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -3014,7 +3367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -3244,7 +3597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -3474,7 +3827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -3704,7 +4057,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -3934,7 +4287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -4164,7 +4517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -4394,7 +4747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -4624,7 +4977,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -4854,7 +5207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5084,7 +5437,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -5314,7 +5667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -5544,7 +5897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -5774,7 +6127,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -6004,7 +6357,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -6234,7 +6587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -6464,7 +6817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6694,7 +7047,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -6924,7 +7277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -7154,7 +7507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -7384,7 +7737,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -7614,7 +7967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -7844,7 +8197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -8075,20 +8428,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BX25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>111</v>
       </c>
@@ -8315,7 +8667,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -8545,7 +8897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -8775,7 +9127,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -9005,7 +9357,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -9235,7 +9587,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -9465,7 +9817,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -9695,7 +10047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -9925,7 +10277,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -10155,7 +10507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -10385,7 +10737,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -10615,7 +10967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -10845,7 +11197,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -11075,7 +11427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -11305,7 +11657,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -11535,7 +11887,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -11765,7 +12117,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -11995,7 +12347,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -12225,7 +12577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -12455,7 +12807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -12685,7 +13037,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -12915,7 +13267,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -13145,7 +13497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -13375,7 +13727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -13605,7 +13957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -13836,20 +14188,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BX25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>111</v>
       </c>
@@ -14076,7 +14427,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -14306,7 +14657,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -14536,7 +14887,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -14766,7 +15117,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -14996,7 +15347,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -15226,7 +15577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -15456,7 +15807,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -15686,7 +16037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -15916,7 +16267,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -16146,7 +16497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -16376,7 +16727,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -16606,7 +16957,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -16836,7 +17187,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -17066,7 +17417,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -17296,7 +17647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -17526,7 +17877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -17756,7 +18107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -17986,7 +18337,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -18216,7 +18567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -18446,7 +18797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -18676,7 +19027,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -18906,7 +19257,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -19136,7 +19487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -19366,7 +19717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -19597,20 +19948,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BX25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:76" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>111</v>
       </c>
@@ -19837,7 +20187,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -20067,7 +20417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -20297,7 +20647,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -20527,7 +20877,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -20757,7 +21107,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -20987,7 +21337,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -21217,7 +21567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -21447,7 +21797,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -21677,7 +22027,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -21907,7 +22257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -22137,7 +22487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -22367,7 +22717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -22597,7 +22947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -22827,7 +23177,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -23057,7 +23407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -23287,7 +23637,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -23517,7 +23867,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -23747,7 +24097,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -23977,7 +24327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -24207,7 +24557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -24437,7 +24787,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -24667,7 +25017,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -24897,7 +25247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -25127,7 +25477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -25358,20 +25708,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>42</v>
       </c>
@@ -25460,7 +25809,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -25552,7 +25901,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -25644,7 +25993,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -25736,7 +26085,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>56</v>
       </c>
@@ -25828,7 +26177,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -25920,7 +26269,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -26012,7 +26361,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -26104,7 +26453,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>46</v>
       </c>
@@ -26196,7 +26545,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
@@ -26288,7 +26637,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -26380,7 +26729,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -26472,7 +26821,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -26564,7 +26913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -26656,7 +27005,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>45</v>
       </c>
@@ -26748,7 +27097,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -26840,7 +27189,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -26932,7 +27281,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -27024,7 +27373,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -27116,7 +27465,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -27208,7 +27557,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>53</v>
       </c>
@@ -27300,7 +27649,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -27392,7 +27741,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -27484,7 +27833,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -27576,7 +27925,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -27669,20 +28018,19 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>241</v>
       </c>
@@ -27756,36 +28104,36 @@
         <v>263</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>199.0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="C2">
+        <v>99</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>199</v>
+      </c>
+      <c r="F2">
+        <v>31</v>
+      </c>
+      <c r="G2">
         <v>1.3478260869565217</v>
       </c>
-      <c r="H2" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="J2" t="n">
-        <v>63.0</v>
+      <c r="H2">
+        <v>32</v>
+      </c>
+      <c r="I2">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="J2">
+        <v>63</v>
       </c>
       <c r="K2" t="s">
         <v>264</v>
@@ -27796,32 +28144,32 @@
       <c r="M2" t="s">
         <v>307</v>
       </c>
-      <c r="N2" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>129.0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>215.0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S2" t="n">
+      <c r="N2">
+        <v>46</v>
+      </c>
+      <c r="O2">
+        <v>86</v>
+      </c>
+      <c r="P2">
+        <v>129</v>
+      </c>
+      <c r="Q2">
+        <v>215</v>
+      </c>
+      <c r="R2">
+        <v>26</v>
+      </c>
+      <c r="S2">
         <v>1.1304347826086956</v>
       </c>
-      <c r="T2" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="T2">
+        <v>42</v>
+      </c>
+      <c r="U2">
         <v>1.826086956521739</v>
       </c>
-      <c r="V2" t="n">
-        <v>68.0</v>
+      <c r="V2">
+        <v>68</v>
       </c>
       <c r="W2" t="s">
         <v>330</v>
@@ -27833,36 +28181,36 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>88.0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>191.0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="H3" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="J3" t="n">
-        <v>54.0</v>
+      <c r="C3">
+        <v>103</v>
+      </c>
+      <c r="D3">
+        <v>88</v>
+      </c>
+      <c r="E3">
+        <v>191</v>
+      </c>
+      <c r="F3">
+        <v>32</v>
+      </c>
+      <c r="G3">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="H3">
+        <v>22</v>
+      </c>
+      <c r="I3">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="J3">
+        <v>54</v>
       </c>
       <c r="K3" t="s">
         <v>265</v>
@@ -27873,32 +28221,32 @@
       <c r="M3" t="s">
         <v>308</v>
       </c>
-      <c r="N3" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>189.0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="S3" t="n">
+      <c r="N3">
+        <v>46</v>
+      </c>
+      <c r="O3">
+        <v>90</v>
+      </c>
+      <c r="P3">
+        <v>99</v>
+      </c>
+      <c r="Q3">
+        <v>189</v>
+      </c>
+      <c r="R3">
+        <v>39</v>
+      </c>
+      <c r="S3">
         <v>1.6956521739130435</v>
       </c>
-      <c r="T3" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U3" t="n">
+      <c r="T3">
+        <v>31</v>
+      </c>
+      <c r="U3">
         <v>1.3478260869565217</v>
       </c>
-      <c r="V3" t="n">
-        <v>70.0</v>
+      <c r="V3">
+        <v>70</v>
       </c>
       <c r="W3" t="s">
         <v>331</v>
@@ -27910,36 +28258,36 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>188.0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="C4">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>188</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
         <v>1.3043478260869565</v>
       </c>
-      <c r="H4" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
         <v>1.3043478260869565</v>
       </c>
-      <c r="J4" t="n">
-        <v>60.0</v>
+      <c r="J4">
+        <v>60</v>
       </c>
       <c r="K4" t="s">
         <v>266</v>
@@ -27950,32 +28298,32 @@
       <c r="M4" t="s">
         <v>309</v>
       </c>
-      <c r="N4" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>61.0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>130.0</v>
-      </c>
-      <c r="R4" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.782608695652174</v>
-      </c>
-      <c r="T4" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="V4" t="n">
-        <v>37.0</v>
+      <c r="N4">
+        <v>46</v>
+      </c>
+      <c r="O4">
+        <v>69</v>
+      </c>
+      <c r="P4">
+        <v>61</v>
+      </c>
+      <c r="Q4">
+        <v>130</v>
+      </c>
+      <c r="R4">
+        <v>18</v>
+      </c>
+      <c r="S4">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="T4">
+        <v>19</v>
+      </c>
+      <c r="U4">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="V4">
+        <v>37</v>
       </c>
       <c r="W4" t="s">
         <v>332</v>
@@ -27987,36 +28335,36 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>171.0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="J5" t="n">
-        <v>40.0</v>
+      <c r="C5">
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>76</v>
+      </c>
+      <c r="E5">
+        <v>171</v>
+      </c>
+      <c r="F5">
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="J5">
+        <v>40</v>
       </c>
       <c r="K5" t="s">
         <v>267</v>
@@ -28027,32 +28375,32 @@
       <c r="M5" t="s">
         <v>310</v>
       </c>
-      <c r="N5" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>106.0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="T5" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="U5" t="n">
+      <c r="N5">
+        <v>46</v>
+      </c>
+      <c r="O5">
+        <v>86</v>
+      </c>
+      <c r="P5">
+        <v>106</v>
+      </c>
+      <c r="Q5">
+        <v>192</v>
+      </c>
+      <c r="R5">
+        <v>32</v>
+      </c>
+      <c r="S5">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="T5">
+        <v>38</v>
+      </c>
+      <c r="U5">
         <v>1.6521739130434783</v>
       </c>
-      <c r="V5" t="n">
-        <v>70.0</v>
+      <c r="V5">
+        <v>70</v>
       </c>
       <c r="W5" t="s">
         <v>296</v>
@@ -28064,36 +28412,36 @@
         <v>367</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>158.0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="H6" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="I6" t="n">
+      <c r="C6">
+        <v>83</v>
+      </c>
+      <c r="D6">
+        <v>75</v>
+      </c>
+      <c r="E6">
+        <v>158</v>
+      </c>
+      <c r="F6">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="H6">
+        <v>29</v>
+      </c>
+      <c r="I6">
         <v>1.2608695652173914</v>
       </c>
-      <c r="J6" t="n">
-        <v>61.0</v>
+      <c r="J6">
+        <v>61</v>
       </c>
       <c r="K6" t="s">
         <v>268</v>
@@ -28104,32 +28452,32 @@
       <c r="M6" t="s">
         <v>311</v>
       </c>
-      <c r="N6" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>195.0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="S6" t="n">
+      <c r="N6">
+        <v>46</v>
+      </c>
+      <c r="O6">
+        <v>90</v>
+      </c>
+      <c r="P6">
+        <v>105</v>
+      </c>
+      <c r="Q6">
+        <v>195</v>
+      </c>
+      <c r="R6">
+        <v>42</v>
+      </c>
+      <c r="S6">
         <v>1.826086956521739</v>
       </c>
-      <c r="T6" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U6" t="n">
+      <c r="T6">
+        <v>31</v>
+      </c>
+      <c r="U6">
         <v>1.3478260869565217</v>
       </c>
-      <c r="V6" t="n">
-        <v>73.0</v>
+      <c r="V6">
+        <v>73</v>
       </c>
       <c r="W6" t="s">
         <v>333</v>
@@ -28141,36 +28489,36 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>38</v>
       </c>
-      <c r="C7" t="n">
-        <v>96.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>76.0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>1.565217391304348</v>
-      </c>
-      <c r="H7" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="C7">
+        <v>96</v>
+      </c>
+      <c r="D7">
+        <v>76</v>
+      </c>
+      <c r="E7">
+        <v>172</v>
+      </c>
+      <c r="F7">
+        <v>36</v>
+      </c>
+      <c r="G7">
+        <v>1.5652173913043479</v>
+      </c>
+      <c r="H7">
+        <v>34</v>
+      </c>
+      <c r="I7">
         <v>1.4782608695652173</v>
       </c>
-      <c r="J7" t="n">
-        <v>70.0</v>
+      <c r="J7">
+        <v>70</v>
       </c>
       <c r="K7" t="s">
         <v>269</v>
@@ -28181,32 +28529,32 @@
       <c r="M7" t="s">
         <v>312</v>
       </c>
-      <c r="N7" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>93.0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>182.0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>37.0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.608695652173913</v>
-      </c>
-      <c r="T7" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0.8260869565217391</v>
-      </c>
-      <c r="V7" t="n">
-        <v>56.0</v>
+      <c r="N7">
+        <v>46</v>
+      </c>
+      <c r="O7">
+        <v>93</v>
+      </c>
+      <c r="P7">
+        <v>89</v>
+      </c>
+      <c r="Q7">
+        <v>182</v>
+      </c>
+      <c r="R7">
+        <v>37</v>
+      </c>
+      <c r="S7">
+        <v>1.6086956521739131</v>
+      </c>
+      <c r="T7">
+        <v>19</v>
+      </c>
+      <c r="U7">
+        <v>0.82608695652173914</v>
+      </c>
+      <c r="V7">
+        <v>56</v>
       </c>
       <c r="W7" t="s">
         <v>334</v>
@@ -28218,36 +28566,36 @@
         <v>284</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>195.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="H8" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="I8" t="n">
+      <c r="C8">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>87</v>
+      </c>
+      <c r="E8">
+        <v>195</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="H8">
+        <v>24</v>
+      </c>
+      <c r="I8">
         <v>1.0434782608695652</v>
       </c>
-      <c r="J8" t="n">
-        <v>56.0</v>
+      <c r="J8">
+        <v>56</v>
       </c>
       <c r="K8" t="s">
         <v>270</v>
@@ -28258,32 +28606,32 @@
       <c r="M8" t="s">
         <v>313</v>
       </c>
-      <c r="N8" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>113.0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>199.0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="S8" t="n">
+      <c r="N8">
+        <v>46</v>
+      </c>
+      <c r="O8">
+        <v>86</v>
+      </c>
+      <c r="P8">
+        <v>113</v>
+      </c>
+      <c r="Q8">
+        <v>199</v>
+      </c>
+      <c r="R8">
+        <v>30</v>
+      </c>
+      <c r="S8">
         <v>1.3043478260869565</v>
       </c>
-      <c r="T8" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="U8" t="n">
+      <c r="T8">
+        <v>31</v>
+      </c>
+      <c r="U8">
         <v>1.3478260869565217</v>
       </c>
-      <c r="V8" t="n">
-        <v>61.0</v>
+      <c r="V8">
+        <v>61</v>
       </c>
       <c r="W8" t="s">
         <v>335</v>
@@ -28295,36 +28643,36 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>46</v>
       </c>
-      <c r="C9" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="C9">
+        <v>105</v>
+      </c>
+      <c r="D9">
+        <v>95</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="G9">
         <v>1.4782608695652173</v>
       </c>
-      <c r="H9" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9">
+        <v>29</v>
+      </c>
+      <c r="I9">
         <v>1.2608695652173914</v>
       </c>
-      <c r="J9" t="n">
-        <v>63.0</v>
+      <c r="J9">
+        <v>63</v>
       </c>
       <c r="K9" t="s">
         <v>271</v>
@@ -28335,32 +28683,32 @@
       <c r="M9" t="s">
         <v>314</v>
       </c>
-      <c r="N9" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>204.0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="T9" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="U9" t="n">
+      <c r="N9">
+        <v>46</v>
+      </c>
+      <c r="O9">
+        <v>81</v>
+      </c>
+      <c r="P9">
+        <v>123</v>
+      </c>
+      <c r="Q9">
+        <v>204</v>
+      </c>
+      <c r="R9">
+        <v>32</v>
+      </c>
+      <c r="S9">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="T9">
+        <v>35</v>
+      </c>
+      <c r="U9">
         <v>1.5217391304347827</v>
       </c>
-      <c r="V9" t="n">
-        <v>67.0</v>
+      <c r="V9">
+        <v>67</v>
       </c>
       <c r="W9" t="s">
         <v>336</v>
@@ -28372,36 +28720,36 @@
         <v>370</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>47</v>
       </c>
-      <c r="C10" t="n">
-        <v>100.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>75.0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>175.0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G10" t="n">
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>75</v>
+      </c>
+      <c r="E10">
+        <v>175</v>
+      </c>
+      <c r="F10">
+        <v>26</v>
+      </c>
+      <c r="G10">
         <v>1.1304347826086956</v>
       </c>
-      <c r="H10" t="n">
-        <v>23.0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>49.0</v>
+      <c r="H10">
+        <v>23</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>49</v>
       </c>
       <c r="K10" t="s">
         <v>272</v>
@@ -28412,32 +28760,32 @@
       <c r="M10" t="s">
         <v>315</v>
       </c>
-      <c r="N10" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="T10" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="U10" t="n">
+      <c r="N10">
+        <v>46</v>
+      </c>
+      <c r="O10">
+        <v>69</v>
+      </c>
+      <c r="P10">
+        <v>83</v>
+      </c>
+      <c r="Q10">
+        <v>152</v>
+      </c>
+      <c r="R10">
+        <v>17</v>
+      </c>
+      <c r="S10">
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="T10">
+        <v>29</v>
+      </c>
+      <c r="U10">
         <v>1.2608695652173914</v>
       </c>
-      <c r="V10" t="n">
-        <v>46.0</v>
+      <c r="V10">
+        <v>46</v>
       </c>
       <c r="W10" t="s">
         <v>337</v>
@@ -28449,36 +28797,36 @@
         <v>371</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11" t="n">
-        <v>97.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>183.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G11" t="n">
+      <c r="C11">
+        <v>97</v>
+      </c>
+      <c r="D11">
+        <v>86</v>
+      </c>
+      <c r="E11">
+        <v>183</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11">
         <v>1.3478260869565217</v>
       </c>
-      <c r="H11" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="J11" t="n">
-        <v>63.0</v>
+      <c r="H11">
+        <v>32</v>
+      </c>
+      <c r="I11">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="J11">
+        <v>63</v>
       </c>
       <c r="K11" t="s">
         <v>273</v>
@@ -28489,32 +28837,32 @@
       <c r="M11" t="s">
         <v>316</v>
       </c>
-      <c r="N11" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>95.0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>197.0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="S11" t="n">
+      <c r="N11">
+        <v>46</v>
+      </c>
+      <c r="O11">
+        <v>102</v>
+      </c>
+      <c r="P11">
+        <v>95</v>
+      </c>
+      <c r="Q11">
+        <v>197</v>
+      </c>
+      <c r="R11">
+        <v>30</v>
+      </c>
+      <c r="S11">
         <v>1.3043478260869565</v>
       </c>
-      <c r="T11" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="U11" t="n">
+      <c r="T11">
+        <v>30</v>
+      </c>
+      <c r="U11">
         <v>1.3043478260869565</v>
       </c>
-      <c r="V11" t="n">
-        <v>60.0</v>
+      <c r="V11">
+        <v>60</v>
       </c>
       <c r="W11" t="s">
         <v>338</v>
@@ -28526,36 +28874,36 @@
         <v>372</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="H12" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="C12">
+        <v>90</v>
+      </c>
+      <c r="D12">
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <v>192</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="H12">
+        <v>48</v>
+      </c>
+      <c r="I12">
         <v>2.0869565217391304</v>
       </c>
-      <c r="J12" t="n">
-        <v>80.0</v>
+      <c r="J12">
+        <v>80</v>
       </c>
       <c r="K12" t="s">
         <v>274</v>
@@ -28566,32 +28914,32 @@
       <c r="M12" t="s">
         <v>317</v>
       </c>
-      <c r="N12" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>79.0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>125.0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.6086956521739131</v>
-      </c>
-      <c r="T12" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U12" t="n">
+      <c r="N12">
+        <v>46</v>
+      </c>
+      <c r="O12">
+        <v>46</v>
+      </c>
+      <c r="P12">
+        <v>79</v>
+      </c>
+      <c r="Q12">
+        <v>125</v>
+      </c>
+      <c r="R12">
+        <v>14</v>
+      </c>
+      <c r="S12">
+        <v>0.60869565217391308</v>
+      </c>
+      <c r="T12">
+        <v>24</v>
+      </c>
+      <c r="U12">
         <v>1.0434782608695652</v>
       </c>
-      <c r="V12" t="n">
-        <v>38.0</v>
+      <c r="V12">
+        <v>38</v>
       </c>
       <c r="W12" t="s">
         <v>339</v>
@@ -28603,36 +28951,36 @@
         <v>373</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>64.0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>150.0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G13" t="n">
+      <c r="C13">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <v>64</v>
+      </c>
+      <c r="E13">
+        <v>150</v>
+      </c>
+      <c r="F13">
+        <v>25</v>
+      </c>
+      <c r="G13">
         <v>1.0869565217391304</v>
       </c>
-      <c r="H13" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="J13" t="n">
-        <v>46.0</v>
+      <c r="H13">
+        <v>21</v>
+      </c>
+      <c r="I13">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="J13">
+        <v>46</v>
       </c>
       <c r="K13" t="s">
         <v>275</v>
@@ -28643,32 +28991,32 @@
       <c r="M13" t="s">
         <v>295</v>
       </c>
-      <c r="N13" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>85.0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.782608695652174</v>
-      </c>
-      <c r="T13" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="U13" t="n">
+      <c r="N13">
+        <v>46</v>
+      </c>
+      <c r="O13">
+        <v>80</v>
+      </c>
+      <c r="P13">
+        <v>85</v>
+      </c>
+      <c r="Q13">
+        <v>165</v>
+      </c>
+      <c r="R13">
+        <v>18</v>
+      </c>
+      <c r="S13">
+        <v>0.78260869565217395</v>
+      </c>
+      <c r="T13">
+        <v>28</v>
+      </c>
+      <c r="U13">
         <v>1.2173913043478262</v>
       </c>
-      <c r="V13" t="n">
-        <v>46.0</v>
+      <c r="V13">
+        <v>46</v>
       </c>
       <c r="W13" t="s">
         <v>340</v>
@@ -28680,36 +29028,36 @@
         <v>374</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="n">
-        <v>98.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>200.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="G14" t="n">
+      <c r="C14">
+        <v>98</v>
+      </c>
+      <c r="D14">
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>35</v>
+      </c>
+      <c r="G14">
         <v>1.5217391304347827</v>
       </c>
-      <c r="H14" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14">
+        <v>34</v>
+      </c>
+      <c r="I14">
         <v>1.4782608695652173</v>
       </c>
-      <c r="J14" t="n">
-        <v>69.0</v>
+      <c r="J14">
+        <v>69</v>
       </c>
       <c r="K14" t="s">
         <v>276</v>
@@ -28720,32 +29068,32 @@
       <c r="M14" t="s">
         <v>318</v>
       </c>
-      <c r="N14" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="S14" t="n">
+      <c r="N14">
+        <v>46</v>
+      </c>
+      <c r="O14">
+        <v>92</v>
+      </c>
+      <c r="P14">
+        <v>80</v>
+      </c>
+      <c r="Q14">
+        <v>172</v>
+      </c>
+      <c r="R14">
+        <v>30</v>
+      </c>
+      <c r="S14">
         <v>1.3043478260869565</v>
       </c>
-      <c r="T14" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="V14" t="n">
-        <v>50.0</v>
+      <c r="T14">
+        <v>20</v>
+      </c>
+      <c r="U14">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="V14">
+        <v>50</v>
       </c>
       <c r="W14" t="s">
         <v>341</v>
@@ -28757,36 +29105,36 @@
         <v>275</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
       </c>
-      <c r="C15" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>187.0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>1.565217391304348</v>
-      </c>
-      <c r="H15" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I15" t="n">
+      <c r="C15">
+        <v>103</v>
+      </c>
+      <c r="D15">
+        <v>84</v>
+      </c>
+      <c r="E15">
+        <v>187</v>
+      </c>
+      <c r="F15">
+        <v>36</v>
+      </c>
+      <c r="G15">
+        <v>1.5652173913043479</v>
+      </c>
+      <c r="H15">
+        <v>28</v>
+      </c>
+      <c r="I15">
         <v>1.2173913043478262</v>
       </c>
-      <c r="J15" t="n">
-        <v>64.0</v>
+      <c r="J15">
+        <v>64</v>
       </c>
       <c r="K15" t="s">
         <v>277</v>
@@ -28797,32 +29145,32 @@
       <c r="M15" t="s">
         <v>319</v>
       </c>
-      <c r="N15" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>77.0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>163.0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="S15" t="n">
+      <c r="N15">
+        <v>46</v>
+      </c>
+      <c r="O15">
+        <v>86</v>
+      </c>
+      <c r="P15">
+        <v>77</v>
+      </c>
+      <c r="Q15">
+        <v>163</v>
+      </c>
+      <c r="R15">
+        <v>28</v>
+      </c>
+      <c r="S15">
         <v>1.2173913043478262</v>
       </c>
-      <c r="T15" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="U15" t="n">
+      <c r="T15">
+        <v>34</v>
+      </c>
+      <c r="U15">
         <v>1.4782608695652173</v>
       </c>
-      <c r="V15" t="n">
-        <v>62.0</v>
+      <c r="V15">
+        <v>62</v>
       </c>
       <c r="W15" t="s">
         <v>342</v>
@@ -28834,36 +29182,36 @@
         <v>375</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>54</v>
       </c>
-      <c r="C16" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>141.0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="H16" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="J16" t="n">
-        <v>41.0</v>
+      <c r="C16">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>81</v>
+      </c>
+      <c r="E16">
+        <v>141</v>
+      </c>
+      <c r="F16">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="H16">
+        <v>21</v>
+      </c>
+      <c r="I16">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="J16">
+        <v>41</v>
       </c>
       <c r="K16" t="s">
         <v>278</v>
@@ -28874,32 +29222,32 @@
       <c r="M16" t="s">
         <v>320</v>
       </c>
-      <c r="N16" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>103.0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>189.0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="S16" t="n">
+      <c r="N16">
+        <v>46</v>
+      </c>
+      <c r="O16">
+        <v>86</v>
+      </c>
+      <c r="P16">
+        <v>103</v>
+      </c>
+      <c r="Q16">
+        <v>189</v>
+      </c>
+      <c r="R16">
+        <v>26</v>
+      </c>
+      <c r="S16">
         <v>1.1304347826086956</v>
       </c>
-      <c r="T16" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="T16">
+        <v>41</v>
+      </c>
+      <c r="U16">
         <v>1.7826086956521738</v>
       </c>
-      <c r="V16" t="n">
-        <v>67.0</v>
+      <c r="V16">
+        <v>67</v>
       </c>
       <c r="W16" t="s">
         <v>330</v>
@@ -28911,36 +29259,36 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="C17" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>118.0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>226.0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="G17" t="n">
+      <c r="C17">
+        <v>108</v>
+      </c>
+      <c r="D17">
+        <v>118</v>
+      </c>
+      <c r="E17">
+        <v>226</v>
+      </c>
+      <c r="F17">
+        <v>39</v>
+      </c>
+      <c r="G17">
         <v>1.6956521739130435</v>
       </c>
-      <c r="H17" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17">
+        <v>38</v>
+      </c>
+      <c r="I17">
         <v>1.6521739130434783</v>
       </c>
-      <c r="J17" t="n">
-        <v>77.0</v>
+      <c r="J17">
+        <v>77</v>
       </c>
       <c r="K17" t="s">
         <v>279</v>
@@ -28951,32 +29299,32 @@
       <c r="M17" t="s">
         <v>321</v>
       </c>
-      <c r="N17" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>168.0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>21.0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="T17" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="N17">
+        <v>46</v>
+      </c>
+      <c r="O17">
+        <v>87</v>
+      </c>
+      <c r="P17">
+        <v>81</v>
+      </c>
+      <c r="Q17">
+        <v>168</v>
+      </c>
+      <c r="R17">
+        <v>21</v>
+      </c>
+      <c r="S17">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="T17">
+        <v>35</v>
+      </c>
+      <c r="U17">
         <v>1.5217391304347827</v>
       </c>
-      <c r="V17" t="n">
-        <v>56.0</v>
+      <c r="V17">
+        <v>56</v>
       </c>
       <c r="W17" t="s">
         <v>343</v>
@@ -28988,36 +29336,36 @@
         <v>278</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>233.0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>52.0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2.260869565217391</v>
-      </c>
-      <c r="H18" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="C18">
+        <v>131</v>
+      </c>
+      <c r="D18">
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <v>233</v>
+      </c>
+      <c r="F18">
+        <v>52</v>
+      </c>
+      <c r="G18">
+        <v>2.2608695652173911</v>
+      </c>
+      <c r="H18">
+        <v>31</v>
+      </c>
+      <c r="I18">
         <v>1.3478260869565217</v>
       </c>
-      <c r="J18" t="n">
-        <v>83.0</v>
+      <c r="J18">
+        <v>83</v>
       </c>
       <c r="K18" t="s">
         <v>280</v>
@@ -29028,32 +29376,32 @@
       <c r="M18" t="s">
         <v>322</v>
       </c>
-      <c r="N18" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>87.0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>78.0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>165.0</v>
-      </c>
-      <c r="R18" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="T18" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="U18" t="n">
+      <c r="N18">
+        <v>46</v>
+      </c>
+      <c r="O18">
+        <v>87</v>
+      </c>
+      <c r="P18">
+        <v>78</v>
+      </c>
+      <c r="Q18">
+        <v>165</v>
+      </c>
+      <c r="R18">
+        <v>22</v>
+      </c>
+      <c r="S18">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="T18">
+        <v>24</v>
+      </c>
+      <c r="U18">
         <v>1.0434782608695652</v>
       </c>
-      <c r="V18" t="n">
-        <v>46.0</v>
+      <c r="V18">
+        <v>46</v>
       </c>
       <c r="W18" t="s">
         <v>344</v>
@@ -29065,36 +29413,36 @@
         <v>374</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" t="n">
-        <v>102.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>80.0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>182.0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="G19" t="n">
+      <c r="C19">
+        <v>102</v>
+      </c>
+      <c r="D19">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>182</v>
+      </c>
+      <c r="F19">
+        <v>31</v>
+      </c>
+      <c r="G19">
         <v>1.3478260869565217</v>
       </c>
-      <c r="H19" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="J19" t="n">
-        <v>53.0</v>
+      <c r="H19">
+        <v>22</v>
+      </c>
+      <c r="I19">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="J19">
+        <v>53</v>
       </c>
       <c r="K19" t="s">
         <v>281</v>
@@ -29105,32 +29453,32 @@
       <c r="M19" t="s">
         <v>323</v>
       </c>
-      <c r="N19" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>110.0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>233.0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>39.0</v>
-      </c>
-      <c r="S19" t="n">
+      <c r="N19">
+        <v>46</v>
+      </c>
+      <c r="O19">
+        <v>110</v>
+      </c>
+      <c r="P19">
+        <v>123</v>
+      </c>
+      <c r="Q19">
+        <v>233</v>
+      </c>
+      <c r="R19">
+        <v>39</v>
+      </c>
+      <c r="S19">
         <v>1.6956521739130435</v>
       </c>
-      <c r="T19" t="n">
-        <v>41.0</v>
-      </c>
-      <c r="U19" t="n">
+      <c r="T19">
+        <v>41</v>
+      </c>
+      <c r="U19">
         <v>1.7826086956521738</v>
       </c>
-      <c r="V19" t="n">
-        <v>80.0</v>
+      <c r="V19">
+        <v>80</v>
       </c>
       <c r="W19" t="s">
         <v>345</v>
@@ -29142,36 +29490,36 @@
         <v>376</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>40</v>
       </c>
-      <c r="C20" t="n">
-        <v>84.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>108.0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>192.0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="G20" t="n">
+      <c r="C20">
+        <v>84</v>
+      </c>
+      <c r="D20">
+        <v>108</v>
+      </c>
+      <c r="E20">
+        <v>192</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
         <v>1.2608695652173914</v>
       </c>
-      <c r="H20" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1.565217391304348</v>
-      </c>
-      <c r="J20" t="n">
-        <v>65.0</v>
+      <c r="H20">
+        <v>36</v>
+      </c>
+      <c r="I20">
+        <v>1.5652173913043479</v>
+      </c>
+      <c r="J20">
+        <v>65</v>
       </c>
       <c r="K20" t="s">
         <v>282</v>
@@ -29182,32 +29530,32 @@
       <c r="M20" t="s">
         <v>324</v>
       </c>
-      <c r="N20" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>172.0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>24.0</v>
-      </c>
-      <c r="S20" t="n">
+      <c r="N20">
+        <v>46</v>
+      </c>
+      <c r="O20">
+        <v>81</v>
+      </c>
+      <c r="P20">
+        <v>91</v>
+      </c>
+      <c r="Q20">
+        <v>172</v>
+      </c>
+      <c r="R20">
+        <v>24</v>
+      </c>
+      <c r="S20">
         <v>1.0434782608695652</v>
       </c>
-      <c r="T20" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="U20" t="n">
+      <c r="T20">
+        <v>27</v>
+      </c>
+      <c r="U20">
         <v>1.173913043478261</v>
       </c>
-      <c r="V20" t="n">
-        <v>51.0</v>
+      <c r="V20">
+        <v>51</v>
       </c>
       <c r="W20" t="s">
         <v>270</v>
@@ -29219,36 +29567,36 @@
         <v>377</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>83.0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>174.0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="G21" t="n">
+      <c r="C21">
+        <v>91</v>
+      </c>
+      <c r="D21">
+        <v>83</v>
+      </c>
+      <c r="E21">
+        <v>174</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21">
         <v>1.173913043478261</v>
       </c>
-      <c r="H21" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="I21" t="n">
+      <c r="H21">
+        <v>34</v>
+      </c>
+      <c r="I21">
         <v>1.4782608695652173</v>
       </c>
-      <c r="J21" t="n">
-        <v>61.0</v>
+      <c r="J21">
+        <v>61</v>
       </c>
       <c r="K21" t="s">
         <v>283</v>
@@ -29259,32 +29607,32 @@
       <c r="M21" t="s">
         <v>325</v>
       </c>
-      <c r="N21" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>127.0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>89.0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>216.0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="S21" t="n">
+      <c r="N21">
+        <v>46</v>
+      </c>
+      <c r="O21">
+        <v>127</v>
+      </c>
+      <c r="P21">
+        <v>89</v>
+      </c>
+      <c r="Q21">
+        <v>216</v>
+      </c>
+      <c r="R21">
+        <v>42</v>
+      </c>
+      <c r="S21">
         <v>1.826086956521739</v>
       </c>
-      <c r="T21" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.565217391304348</v>
-      </c>
-      <c r="V21" t="n">
-        <v>78.0</v>
+      <c r="T21">
+        <v>36</v>
+      </c>
+      <c r="U21">
+        <v>1.5652173913043479</v>
+      </c>
+      <c r="V21">
+        <v>78</v>
       </c>
       <c r="W21" t="s">
         <v>346</v>
@@ -29296,36 +29644,36 @@
         <v>279</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>49</v>
       </c>
-      <c r="C22" t="n">
-        <v>91.0</v>
-      </c>
-      <c r="D22" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>151.0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="G22" t="n">
+      <c r="C22">
+        <v>91</v>
+      </c>
+      <c r="D22">
+        <v>60</v>
+      </c>
+      <c r="E22">
+        <v>151</v>
+      </c>
+      <c r="F22">
+        <v>28</v>
+      </c>
+      <c r="G22">
         <v>1.2173913043478262</v>
       </c>
-      <c r="H22" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.9565217391304348</v>
-      </c>
-      <c r="J22" t="n">
-        <v>50.0</v>
+      <c r="H22">
+        <v>22</v>
+      </c>
+      <c r="I22">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="J22">
+        <v>50</v>
       </c>
       <c r="K22" t="s">
         <v>284</v>
@@ -29336,32 +29684,32 @@
       <c r="M22" t="s">
         <v>326</v>
       </c>
-      <c r="N22" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>86.0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>167.0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="S22" t="n">
+      <c r="N22">
+        <v>46</v>
+      </c>
+      <c r="O22">
+        <v>81</v>
+      </c>
+      <c r="P22">
+        <v>86</v>
+      </c>
+      <c r="Q22">
+        <v>167</v>
+      </c>
+      <c r="R22">
+        <v>31</v>
+      </c>
+      <c r="S22">
         <v>1.3478260869565217</v>
       </c>
-      <c r="T22" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="U22" t="n">
+      <c r="T22">
+        <v>26</v>
+      </c>
+      <c r="U22">
         <v>1.1304347826086956</v>
       </c>
-      <c r="V22" t="n">
-        <v>57.0</v>
+      <c r="V22">
+        <v>57</v>
       </c>
       <c r="W22" t="s">
         <v>347</v>
@@ -29373,36 +29721,36 @@
         <v>378</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="n">
-        <v>107.0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>119.0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>226.0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>32.0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>1.391304347826087</v>
-      </c>
-      <c r="H23" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="I23" t="n">
+      <c r="C23">
+        <v>107</v>
+      </c>
+      <c r="D23">
+        <v>119</v>
+      </c>
+      <c r="E23">
+        <v>226</v>
+      </c>
+      <c r="F23">
+        <v>32</v>
+      </c>
+      <c r="G23">
+        <v>1.3913043478260869</v>
+      </c>
+      <c r="H23">
+        <v>38</v>
+      </c>
+      <c r="I23">
         <v>1.6521739130434783</v>
       </c>
-      <c r="J23" t="n">
-        <v>70.0</v>
+      <c r="J23">
+        <v>70</v>
       </c>
       <c r="K23" t="s">
         <v>285</v>
@@ -29413,32 +29761,32 @@
       <c r="M23" t="s">
         <v>327</v>
       </c>
-      <c r="N23" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>69.0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>143.0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="S23" t="n">
+      <c r="N23">
+        <v>46</v>
+      </c>
+      <c r="O23">
+        <v>74</v>
+      </c>
+      <c r="P23">
+        <v>69</v>
+      </c>
+      <c r="Q23">
+        <v>143</v>
+      </c>
+      <c r="R23">
+        <v>25</v>
+      </c>
+      <c r="S23">
         <v>1.0869565217391304</v>
       </c>
-      <c r="T23" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.7391304347826086</v>
-      </c>
-      <c r="V23" t="n">
-        <v>42.0</v>
+      <c r="T23">
+        <v>17</v>
+      </c>
+      <c r="U23">
+        <v>0.73913043478260865</v>
+      </c>
+      <c r="V23">
+        <v>42</v>
       </c>
       <c r="W23" t="s">
         <v>286</v>
@@ -29450,36 +29798,36 @@
         <v>379</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>74.0</v>
-      </c>
-      <c r="E24" t="n">
-        <v>148.0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>25.0</v>
-      </c>
-      <c r="G24" t="n">
+      <c r="C24">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>74</v>
+      </c>
+      <c r="E24">
+        <v>148</v>
+      </c>
+      <c r="F24">
+        <v>25</v>
+      </c>
+      <c r="G24">
         <v>1.0869565217391304</v>
       </c>
-      <c r="H24" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="I24" t="n">
+      <c r="H24">
+        <v>30</v>
+      </c>
+      <c r="I24">
         <v>1.3043478260869565</v>
       </c>
-      <c r="J24" t="n">
-        <v>55.0</v>
+      <c r="J24">
+        <v>55</v>
       </c>
       <c r="K24" t="s">
         <v>286</v>
@@ -29490,32 +29838,32 @@
       <c r="M24" t="s">
         <v>328</v>
       </c>
-      <c r="N24" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>92.0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>131.0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>223.0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>38.0</v>
-      </c>
-      <c r="S24" t="n">
+      <c r="N24">
+        <v>46</v>
+      </c>
+      <c r="O24">
+        <v>92</v>
+      </c>
+      <c r="P24">
+        <v>131</v>
+      </c>
+      <c r="Q24">
+        <v>223</v>
+      </c>
+      <c r="R24">
+        <v>38</v>
+      </c>
+      <c r="S24">
         <v>1.6521739130434783</v>
       </c>
-      <c r="T24" t="n">
-        <v>51.0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.217391304347826</v>
-      </c>
-      <c r="V24" t="n">
-        <v>89.0</v>
+      <c r="T24">
+        <v>51</v>
+      </c>
+      <c r="U24">
+        <v>2.2173913043478262</v>
+      </c>
+      <c r="V24">
+        <v>89</v>
       </c>
       <c r="W24" t="s">
         <v>348</v>
@@ -29527,36 +29875,36 @@
         <v>380</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" t="n">
-        <v>71.0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>67.0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>138.0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G25" t="n">
+      <c r="C25">
+        <v>71</v>
+      </c>
+      <c r="D25">
+        <v>67</v>
+      </c>
+      <c r="E25">
+        <v>138</v>
+      </c>
+      <c r="F25">
+        <v>26</v>
+      </c>
+      <c r="G25">
         <v>1.1304347826086956</v>
       </c>
-      <c r="H25" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="H25">
+        <v>28</v>
+      </c>
+      <c r="I25">
         <v>1.2173913043478262</v>
       </c>
-      <c r="J25" t="n">
-        <v>54.0</v>
+      <c r="J25">
+        <v>54</v>
       </c>
       <c r="K25" t="s">
         <v>287</v>
@@ -29567,32 +29915,32 @@
       <c r="M25" t="s">
         <v>329</v>
       </c>
-      <c r="N25" t="n">
-        <v>46.0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>111.0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>105.0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>216.0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>42.0</v>
-      </c>
-      <c r="S25" t="n">
+      <c r="N25">
+        <v>46</v>
+      </c>
+      <c r="O25">
+        <v>111</v>
+      </c>
+      <c r="P25">
+        <v>105</v>
+      </c>
+      <c r="Q25">
+        <v>216</v>
+      </c>
+      <c r="R25">
+        <v>42</v>
+      </c>
+      <c r="S25">
         <v>1.826086956521739</v>
       </c>
-      <c r="T25" t="n">
-        <v>35.0</v>
-      </c>
-      <c r="U25" t="n">
+      <c r="T25">
+        <v>35</v>
+      </c>
+      <c r="U25">
         <v>1.5217391304347827</v>
       </c>
-      <c r="V25" t="n">
-        <v>77.0</v>
+      <c r="V25">
+        <v>77</v>
       </c>
       <c r="W25" t="s">
         <v>349</v>
@@ -29605,20 +29953,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="74" zoomScaleNormal="74" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="40.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="84.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>382</v>
       </c>
@@ -29631,416 +29987,491 @@
       <c r="E1" t="s">
         <v>385</v>
       </c>
+      <c r="F1" t="s">
+        <v>386</v>
+      </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>459</v>
+      </c>
+      <c r="F2" t="s">
+        <v>483</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>460</v>
+      </c>
+      <c r="F3" t="s">
+        <v>484</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E4" t="s">
-        <v>460</v>
+        <v>461</v>
+      </c>
+      <c r="F4" t="s">
+        <v>485</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D5" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E5" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="F5" t="s">
+        <v>486</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E6" t="s">
-        <v>462</v>
+        <v>463</v>
+      </c>
+      <c r="F6" t="s">
+        <v>487</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E7" t="s">
-        <v>463</v>
+        <v>464</v>
+      </c>
+      <c r="F7" t="s">
+        <v>488</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C8" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D8" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E8" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="F8" t="s">
+        <v>489</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E9" t="s">
-        <v>465</v>
+        <v>466</v>
+      </c>
+      <c r="F9" t="s">
+        <v>490</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D10" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E10" t="s">
-        <v>466</v>
+        <v>467</v>
+      </c>
+      <c r="F10" t="s">
+        <v>491</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C11" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D11" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E11" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="F11" t="s">
+        <v>492</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D12" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E12" t="s">
-        <v>468</v>
+        <v>469</v>
+      </c>
+      <c r="F12" t="s">
+        <v>493</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C13" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E13" t="s">
-        <v>469</v>
+        <v>470</v>
+      </c>
+      <c r="F13" t="s">
+        <v>494</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C14" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D14" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E14" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="F14" t="s">
+        <v>495</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E15" t="s">
-        <v>471</v>
+        <v>472</v>
+      </c>
+      <c r="F15" t="s">
+        <v>496</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C16" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D16" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E16" t="s">
-        <v>472</v>
+        <v>473</v>
+      </c>
+      <c r="F16" t="s">
+        <v>497</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C17" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D17" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E17" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="F17" t="s">
+        <v>498</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C18" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D18" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E18" t="s">
-        <v>474</v>
+        <v>475</v>
+      </c>
+      <c r="F18" t="s">
+        <v>499</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C19" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D19" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E19" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="F19" t="s">
+        <v>500</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C20" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D20" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E20" t="s">
-        <v>476</v>
+        <v>477</v>
+      </c>
+      <c r="F20" t="s">
+        <v>501</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C21" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D21" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E21" t="s">
-        <v>477</v>
+        <v>478</v>
+      </c>
+      <c r="F21" t="s">
+        <v>502</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C22" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D22" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E22" t="s">
-        <v>478</v>
+        <v>479</v>
+      </c>
+      <c r="F22" t="s">
+        <v>503</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C23" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D23" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E23" t="s">
-        <v>479</v>
+        <v>480</v>
+      </c>
+      <c r="F23" t="s">
+        <v>504</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C24" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D24" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E24" t="s">
-        <v>480</v>
+        <v>481</v>
+      </c>
+      <c r="F24" t="s">
+        <v>505</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C25" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D25" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E25" t="s">
-        <v>481</v>
+        <v>482</v>
+      </c>
+      <c r="F25" t="s">
+        <v>506</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>